--- a/doc/bd.xlsx
+++ b/doc/bd.xlsx
@@ -477,15 +477,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日增文章数（总增加量、时段增加量、按照网站查询增加量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>告警信息详情包括：新闻标题、新闻摘要、采集时间、网站服务器IP、网站服务运营商、网站管理员联系电话、主流搜索引擎快照情况，累计发送通知数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>含敏感词最多的网站TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照地理位置划分的饼图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,6 +1121,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1139,22 +1184,22 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1162,51 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1566,17 +1566,17 @@
       <c r="D4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="P4" s="17"/>
       <c r="Z4" s="16"/>
     </row>
@@ -1594,17 +1594,17 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
@@ -1630,17 +1630,17 @@
       <c r="D6" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -1666,17 +1666,17 @@
       <c r="D7" s="25">
         <v>1.2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
@@ -1695,15 +1695,15 @@
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
@@ -1722,15 +1722,15 @@
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
@@ -1749,15 +1749,15 @@
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -1776,15 +1776,15 @@
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
@@ -1803,15 +1803,15 @@
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
@@ -1830,15 +1830,15 @@
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -1857,15 +1857,15 @@
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
@@ -1884,15 +1884,15 @@
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
@@ -1909,15 +1909,15 @@
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -1934,15 +1934,15 @@
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
@@ -1959,15 +1959,15 @@
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
       <c r="P18" s="17"/>
       <c r="Z18" s="16"/>
     </row>
@@ -2258,12 +2258,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="E17:M17"/>
     <mergeCell ref="E18:M18"/>
@@ -2273,6 +2267,12 @@
     <mergeCell ref="E13:M13"/>
     <mergeCell ref="E14:M14"/>
     <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,7 +2284,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2322,57 +2322,57 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="61"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="62"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="55"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="55"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="55"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="9" t="s">
         <v>78</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="55"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="9" t="s">
         <v>79</v>
       </c>
@@ -2388,21 +2388,21 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="40.5">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="55"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
@@ -2412,43 +2412,43 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="27">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="55"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
@@ -2458,19 +2458,19 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="55"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="55"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
@@ -2480,73 +2480,73 @@
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="55"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="48"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="70"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="55"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="55"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="70"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="55"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="55"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="70" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2558,7 +2558,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="55"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
@@ -2568,17 +2568,17 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="55"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="9" t="s">
         <v>66</v>
       </c>
@@ -2588,17 +2588,17 @@
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="55"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2608,7 +2608,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="55"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="55"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="40.5">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2698,14 +2698,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="27">
-      <c r="A4" s="57"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="40.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2732,35 +2732,35 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2813,14 +2813,14 @@
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2847,14 +2847,14 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
